--- a/main/resource/线上学习-集合_1678767106781.xlsx
+++ b/main/resource/线上学习-集合_1678767106781.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -448,7 +448,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -484,552 +484,540 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>命题演算的方法具体怎么用在证明集合等式中？</t>
+          <t>为什么要用后继集来表示自然数？</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>老师您好，我对4.1中的例题4.1.3的证明推导思路不太理解。</t>
+          <t>感觉没什么难点</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>感觉没什么难点</t>
+          <t>A➖B的运算不熟练，对于对称差概念不是很清晰</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A➖B的运算不熟练，对于对称差概念不是很清晰</t>
+          <t>直积的定理不太理解集合无疑问</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>基本能够理解集合的定义和运算。</t>
+          <t>这个不是很理解</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>两个不相交的集合相减得到的是否可为这两个集合之一，还是得到被减去的那个集合本身？</t>
+          <t>此步转化不理解</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>集合的运算</t>
+          <t>3.4 后继集和自然数的关系没看懂习题 {a}-{{a}} 的意义是什么</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>直积的定理不太理解集合无疑问</t>
+          <t>用集合研究自然数有什么好处</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>这个不是很理解</t>
+          <t>自然数的定义不太懂</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>此步转化不理解</t>
+          <t>没什么问题</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>用集合研究自然数有什么好处</t>
+          <t>预习完毕，自然数和后继集不太明白</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>自然数的定义不太懂</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>集合課題相对比較容易明白，大致能够掌握,但要融入渭词和命题逻辑时，还是不知道从何入手去推導及证明</t>
+          <t>感觉跟高中内容有接轨，所以这几节的内容不难理解，但是由于上一章的公式定理太多，还没吃透，熟练度也不够，所以其中有一些用到上一章内容的地方会反应得有点慢</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>没什么问题</t>
+          <t>第七题符号看不懂，其他无</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>例题3.3.5的证明题为什么要用X来证明呢?</t>
+          <t>不理解为什么可以用分配律这里</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>3.5第10题</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>集合证明的符号化以及命题演算不能熟练运用</t>
+          <t>没有</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>感觉跟高中内容有接轨，所以这几节的内容不难理解，但是由于上一章的公式定理太多，还没吃透，熟练度也不够，所以其中有一些用到上一章内容的地方会反应得有点慢</t>
+          <t>暂无</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>判断某个元素或集合是否属于或包含于两个集合相减</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>对证明集合等式不是很懂。</t>
+          <t>已看完，无</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>自然数,内容</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>在集合的证明与推到方面和矩阵</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>集合,证明</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>第七题符号看不懂，其他无</t>
+          <t>已完成预习，无疑问</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>集合,特征函数</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>集合恒等式证明和逻辑等价证明还不够熟练</t>
+          <t>特征函数</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>集合,特征函数</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>不理解为什么可以用分配律这里</t>
+          <t>基本能够理解集合的定义和运算。</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>集合,特征函数</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3.5第10题</t>
+          <t>两个不相交的集合相减得到的是否可为这两个集合之一，还是得到被减去的那个集合本身？</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>集合,特征函数</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>为什么A=空集和B={空集}不等价课本66页的17题不知道怎么去表述去证明</t>
+          <t>集合的运算</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>集合,特征函数</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>集合的特征函数用0-1串计算集合的交集不太懂</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>集合,特征函数</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>后继集书写不够熟练用命题演算方法去证明集合等式还不够熟练</t>
+          <t>理解集合的特征函数</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>集合,特征函数</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>集合和元素有时候难以区分</t>
+          <t>判断某个元素或集合是否属于或包含于两个集合相减</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>集合,特征函数</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>证明集合等价式</t>
+          <t>集合的特征函数不是很理解</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>集合,特征函数</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>对幂集还不太理解，不太理解为什么集合能当作另一个集合中的元素</t>
+          <t>集合的特征函数有些不理解，后继集不太理解</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>集合,特征函数</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>暂无</t>
+          <t>集合和元素有时候难以区分</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>集合,特征函数</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>对幂集还不太理解，不太理解为什么集合能当作另一个集合中的元素</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>集合,特征函数</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>对我比较难理解的是证明集合等式和笛卡尔积</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>集合,证明</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>二元关系的部分。</t>
+          <t>集合的特征函数有点不懂</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>证明,集合</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>已看完，无</t>
+          <t>命题演算的方法具体怎么用在证明集合等式中？</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>证明,集合</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4.1二元关系不完全掌握4.2 矩阵表达式不明白</t>
+          <t>老师您好，我对4.1中的例题4.1.3的证明推导思路不太理解。</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>证明,集合</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>二元关系有点不清楚</t>
+          <t>集合課題相对比較容易明白，大致能够掌握,但要融入渭词和命题逻辑时，还是不知道从何入手去推導及证明</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>集合,证明</t>
+          <t>证明,集合</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>已完成预习，无疑问</t>
+          <t>较难理解逻辑等价在解题中的运用</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>证明,集合</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>例题3.3.5的证明题为什么要用X来证明呢?</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>特征函数,集合</t>
+          <t>证明,集合</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>特征函数</t>
+          <t>集合证明的符号化以及命题演算不能熟练运用</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>特征函数,集合</t>
+          <t>证明,集合</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>集合的特征函数用0-1串计算集合的交集不太懂</t>
+          <t>对证明集合等式不是很懂。</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>特征函数,集合</t>
+          <t>证明,集合</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>集合的特征函数有点不懂</t>
+          <t>在集合的证明与推到方面和矩阵</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>证明,集合</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>集合恒等式证明和逻辑等价证明还不够熟练</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>证明,集合</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>为什么要用后继集来表示自然数？</t>
+          <t>后继集书写不够熟练用命题演算方法去证明集合等式还不够熟练</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>证明,集合</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>后继数概念还是比较模糊</t>
+          <t>证明集合等价式</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>证明,集合</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>空集和空集的集合为什么不是一样的，后继集有点不懂</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>后继,空集</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>空集的后继集的求法及空集的后继集的后继集的求法不太能看懂</t>
+          <t>对我比较难理解的是证明集合等式和笛卡尔积</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1029,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>后继集和空集是怎么定义出自然数集的，有点看不明白</t>
+          <t>后继数概念还是比较模糊</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1041,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>后继集对于空集，推出的结论：任一自然数都是一个集合的名称。不太理解。</t>
+          <t>后继集的定义不是很懂</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1053,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>预习完毕，自然数和后继集不太明白</t>
+          <t>空集和空集的集合为什么不是一样的，后继集有点不懂</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1065,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>后继集的概念不清楚</t>
+          <t>后继集</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1077,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>涉及多个元素的集合的后继集容易出错</t>
+          <t>空集的后继集的求法及空集的后继集的后继集的求法不太能看懂</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1089,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>感觉后继集有点难想象</t>
+          <t>后继集和空集是怎么定义出自然数集的，有点看不明白</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1101,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>用空集和它的后继集表示自然数有什么意义和应用呢</t>
+          <t>后继集对于空集，推出的结论：任一自然数都是一个集合的名称。不太理解。</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1113,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>后继集不懂</t>
+          <t>后继集的概念不清楚</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1125,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>对于幂集不是很理解为什么{空集}的子集有两个对后继集不是很理解，把自然数定义为子集不是很理解</t>
+          <t>涉及多个元素的集合的后继集容易出错</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1137,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>后继集的含义</t>
+          <t>感觉后继集有点难想象</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1149,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>对于空集的后继集不理解，不是应该为{{∅}}吗？</t>
+          <t>用空集和它的后继集表示自然数有什么意义和应用呢</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1161,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>为什么要定义后继集？集合证明题的标准格式如何写？</t>
+          <t>后继集不懂</t>
         </is>
       </c>
     </row>
@@ -1185,247 +1173,259 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>不明白后继集有什么数学意义</t>
+          <t>后继集不太理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>后继,空集</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>对于幂集不是很理解为什么{空集}的子集有两个对后继集不是很理解，把自然数定义为子集不是很理解</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>关系,逻辑</t>
+          <t>后继,空集</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>集合明白，关系部分概念有点不清楚</t>
+          <t>为什么A=空集和B={空集}不等价课本66页的17题不知道怎么去表述去证明</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>关系,逻辑</t>
+          <t>后继,空集</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>关系矩阵那块不太懂</t>
+          <t>后继集不是很理解</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>关系,逻辑</t>
+          <t>后继,空集</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>函数部份的关系不太理解</t>
+          <t>后继集的含义</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>关系,逻辑</t>
+          <t>后继,空集</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>不太理解逻辑恒等式之间的转换，并且还有各种运算之间的关系</t>
+          <t>对于空集的后继集不理解，不是应该为{{∅}}吗？</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>关系,逻辑</t>
+          <t>后继,空集</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>较难理解逻辑等价在解题中的运用</t>
+          <t>为什么要定义后继集？集合证明题的标准格式如何写？</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>关系,逻辑</t>
+          <t>后继,空集</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>矩阵表示关系那里的对应怎么看不太清楚</t>
+          <t>后继集</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>关系,逻辑</t>
+          <t>后继,空集</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>关系有点难懂</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>关系,逻辑</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>逻辑等价式的关系</t>
+          <t>不明白后继集有什么数学意义</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>关系,集合</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>集合明白，关系部分概念有点不清楚</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>后继</t>
+          <t>关系,集合</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>后继集的定义不是很懂</t>
+          <t>关系矩阵那块不太懂</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>后继</t>
+          <t>关系,集合</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>后继集</t>
+          <t>集合恒等式与逻辑等价式具体关系不太清楚，集合的特征函数难理解</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>后继</t>
+          <t>关系,集合</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>后继集不太理解</t>
+          <t>函数部份的关系不太理解</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>后继</t>
+          <t>关系,集合</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>后继集不是很理解</t>
+          <t>不太理解逻辑恒等式之间的转换，并且还有各种运算之间的关系</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>后继</t>
+          <t>关系,集合</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>后继集</t>
+          <t>集合恒等式和逻辑等价式之间的关系</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>关系,集合</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>矩阵表示关系那里的对应怎么看不太清楚</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>集合,后继</t>
+          <t>关系,集合</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>集合恒等式与逻辑等价式具体关系不太清楚，集合的特征函数难理解</t>
+          <t>关系有点难懂</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>集合,后继</t>
+          <t>关系,集合</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3.4 后继集和自然数的关系没看懂习题 {a}-{{a}} 的意义是什么</t>
+          <t>集合的关系</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>集合,后继</t>
+          <t>关系,集合</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>集合的特征函数有些不理解，后继集不太理解</t>
+          <t>逻辑等价式的关系</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>关系,集合</t>
+          <t>二元关系,不完全</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>集合恒等式和逻辑等价式之间的关系</t>
+          <t>二元关系的部分。</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>关系,集合</t>
+          <t>二元关系,不完全</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>集合的关系</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>特征函数,集合</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>理解集合的特征函数</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>特征函数,集合</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>集合的特征函数不是很理解</t>
+          <t>4.1二元关系不完全掌握4.2 矩阵表达式不明白</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>二元关系,不完全</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>二元关系有点不清楚</t>
         </is>
       </c>
     </row>

--- a/main/resource/线上学习-集合_1678767106781.xlsx
+++ b/main/resource/线上学习-集合_1678767106781.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Questions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Questions" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,7 +436,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -448,7 +448,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -484,948 +484,948 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>为什么要用后继集来表示自然数？</t>
+          <t>命题演算的方法具体怎么用在证明集合等式中？</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>感觉没什么难点</t>
+          <t>老师您好，我对4.1中的例题4.1.3的证明推导思路不太理解。</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A➖B的运算不熟练，对于对称差概念不是很清晰</t>
+          <t>后继数概念还是比较模糊</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>直积的定理不太理解集合无疑问</t>
+          <t>感觉没什么难点</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>这个不是很理解</t>
+          <t>集合明白，关系部分概念有点不清楚</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>此步转化不理解</t>
+          <t>A➖B的运算不熟练，对于对称差概念不是很清晰</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3.4 后继集和自然数的关系没看懂习题 {a}-{{a}} 的意义是什么</t>
+          <t>基本能够理解集合的定义和运算。</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>用集合研究自然数有什么好处</t>
+          <t>两个不相交的集合相减得到的是否可为这两个集合之一，还是得到被减去的那个集合本身？</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>自然数的定义不太懂</t>
+          <t>关系矩阵那块不太懂</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>没什么问题</t>
+          <t>集合的运算</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>预习完毕，自然数和后继集不太明白</t>
+          <t>直积的定理不太理解集合无疑问</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>函数部份的关系不太理解</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>感觉跟高中内容有接轨，所以这几节的内容不难理解，但是由于上一章的公式定理太多，还没吃透，熟练度也不够，所以其中有一些用到上一章内容的地方会反应得有点慢</t>
+          <t>这个不是很理解</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>第七题符号看不懂，其他无</t>
+          <t>此步转化不理解</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>不理解为什么可以用分配律这里</t>
+          <t>后继集对于空集，推出的结论：任一自然数都是一个集合的名称。不太理解。</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3.5第10题</t>
+          <t>用集合研究自然数有什么好处</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>不太理解逻辑恒等式之间的转换，并且还有各种运算之间的关系</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>暂无</t>
+          <t>集合課題相对比較容易明白，大致能够掌握,但要融入渭词和命题逻辑时，还是不知道从何入手去推導及证明</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>没什么问题</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>已看完，无</t>
+          <t>后继集的概念不清楚</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>自然数,内容</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>已完成预习，无疑问</t>
+          <t>例题3.3.5的证明题为什么要用X来证明呢?</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>集合,后继</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>集合,特征函数</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>特征函数</t>
+          <t>集合证明的符号化以及命题演算不能熟练运用</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>集合,特征函数</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>基本能够理解集合的定义和运算。</t>
+          <t>感觉跟高中内容有接轨，所以这几节的内容不难理解，但是由于上一章的公式定理太多，还没吃透，熟练度也不够，所以其中有一些用到上一章内容的地方会反应得有点慢</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>集合,特征函数</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>两个不相交的集合相减得到的是否可为这两个集合之一，还是得到被减去的那个集合本身？</t>
+          <t>矩阵表示关系那里的对应怎么看不太清楚</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>集合,特征函数</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>集合的运算</t>
+          <t>涉及多个元素的集合的后继集容易出错</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>集合,特征函数</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>集合的特征函数用0-1串计算集合的交集不太懂</t>
+          <t>关系有点难懂</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>集合,特征函数</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>理解集合的特征函数</t>
+          <t>判断某个元素或集合是否属于或包含于两个集合相减</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>集合,特征函数</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>判断某个元素或集合是否属于或包含于两个集合相减</t>
+          <t>对证明集合等式不是很懂。</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>集合,特征函数</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>集合的特征函数不是很理解</t>
+          <t>感觉后继集有点难想象</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>集合,特征函数</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>集合的特征函数有些不理解，后继集不太理解</t>
+          <t>在集合的证明与推到方面和矩阵</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>集合,特征函数</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>集合和元素有时候难以区分</t>
+          <t>第七题符号看不懂，其他无</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>集合,特征函数</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>对幂集还不太理解，不太理解为什么集合能当作另一个集合中的元素</t>
+          <t>不理解为什么可以用分配律这里</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>集合,特征函数</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>集合的特征函数有点不懂</t>
+          <t>3.5第10题</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>集合,后继</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>对于幂集不是很理解为什么{空集}的子集有两个对后继集不是很理解，把自然数定义为子集不是很理解</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>证明,集合</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>命题演算的方法具体怎么用在证明集合等式中？</t>
+          <t>为什么A=空集和B={空集}不等价课本66页的17题不知道怎么去表述去证明</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>证明,集合</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>老师您好，我对4.1中的例题4.1.3的证明推导思路不太理解。</t>
+          <t>没有</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>证明,集合</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>集合課題相对比較容易明白，大致能够掌握,但要融入渭词和命题逻辑时，还是不知道从何入手去推導及证明</t>
+          <t>后继集书写不够熟练用命题演算方法去证明集合等式还不够熟练</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>证明,集合</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>较难理解逻辑等价在解题中的运用</t>
+          <t>集合的关系</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>证明,集合</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>例题3.3.5的证明题为什么要用X来证明呢?</t>
+          <t>集合和元素有时候难以区分</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>证明,集合</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>集合证明的符号化以及命题演算不能熟练运用</t>
+          <t>对幂集还不太理解，不太理解为什么集合能当作另一个集合中的元素</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>证明,集合</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>对证明集合等式不是很懂。</t>
+          <t>后继集的含义</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>证明,集合</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>在集合的证明与推到方面和矩阵</t>
+          <t>为什么要定义后继集？集合证明题的标准格式如何写？</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>证明,集合</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>集合恒等式证明和逻辑等价证明还不够熟练</t>
+          <t>暂无</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>证明,集合</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>后继集书写不够熟练用命题演算方法去证明集合等式还不够熟练</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>证明,集合</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>证明集合等价式</t>
+          <t>对我比较难理解的是证明集合等式和笛卡尔积</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>证明,集合</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>对我比较难理解的是证明集合等式和笛卡尔积</t>
+          <t>二元关系的部分。</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>集合,后继</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>已看完，无</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>后继数概念还是比较模糊</t>
+          <t>4.1二元关系不完全掌握4.2 矩阵表达式不明白</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>后继集的定义不是很懂</t>
+          <t>不明白后继集有什么数学意义</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>空集和空集的集合为什么不是一样的，后继集有点不懂</t>
+          <t>二元关系有点不清楚</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>集合,后继</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>后继集</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>后继,空集</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>空集的后继集的求法及空集的后继集的后继集的求法不太能看懂</t>
+          <t>已完成预习，无疑问</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>集合,特征函数</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>后继集和空集是怎么定义出自然数集的，有点看不明白</t>
+          <t>特征函数</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>集合,特征函数</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>后继集对于空集，推出的结论：任一自然数都是一个集合的名称。不太理解。</t>
+          <t>集合的特征函数用0-1串计算集合的交集不太懂</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>集合,特征函数</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>后继集的概念不清楚</t>
+          <t>理解集合的特征函数</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>集合,特征函数</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>涉及多个元素的集合的后继集容易出错</t>
+          <t>集合的特征函数不是很理解</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>集合,特征函数</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>感觉后继集有点难想象</t>
+          <t>集合的特征函数有些不理解，后继集不太理解</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>集合,特征函数</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>用空集和它的后继集表示自然数有什么意义和应用呢</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>后继,空集</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>后继集不懂</t>
+          <t>集合的特征函数有点不懂</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>自然数,后继</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>后继集不太理解</t>
+          <t>为什么要用后继集来表示自然数？</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>自然数,后继</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>对于幂集不是很理解为什么{空集}的子集有两个对后继集不是很理解，把自然数定义为子集不是很理解</t>
+          <t>3.4 后继集和自然数的关系没看懂习题 {a}-{{a}} 的意义是什么</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>自然数,后继</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>为什么A=空集和B={空集}不等价课本66页的17题不知道怎么去表述去证明</t>
+          <t>后继集和空集是怎么定义出自然数集的，有点看不明白</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>自然数,后继</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>后继集不是很理解</t>
+          <t>自然数的定义不太懂</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>自然数,后继</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>后继集的含义</t>
+          <t>预习完毕，自然数和后继集不太明白</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>自然数,后继</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>对于空集的后继集不理解，不是应该为{{∅}}吗？</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>后继,空集</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>为什么要定义后继集？集合证明题的标准格式如何写？</t>
+          <t>用空集和它的后继集表示自然数有什么意义和应用呢</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>后继</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>后继集</t>
+          <t>后继集的定义不是很懂</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>后继,空集</t>
+          <t>后继</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>不明白后继集有什么数学意义</t>
+          <t>后继集</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>后继</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>后继集不太理解</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>关系,集合</t>
+          <t>后继</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>集合明白，关系部分概念有点不清楚</t>
+          <t>后继集不是很理解</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>关系,集合</t>
+          <t>后继</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>关系矩阵那块不太懂</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>关系,集合</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>集合恒等式与逻辑等价式具体关系不太清楚，集合的特征函数难理解</t>
+          <t>后继集</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>关系,集合</t>
+          <t>后继,空集</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>函数部份的关系不太理解</t>
+          <t>空集和空集的集合为什么不是一样的，后继集有点不懂</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>关系,集合</t>
+          <t>后继,空集</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>不太理解逻辑恒等式之间的转换，并且还有各种运算之间的关系</t>
+          <t>空集的后继集的求法及空集的后继集的后继集的求法不太能看懂</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>关系,集合</t>
+          <t>后继,空集</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>集合恒等式和逻辑等价式之间的关系</t>
+          <t>后继集不懂</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>关系,集合</t>
+          <t>后继,空集</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>矩阵表示关系那里的对应怎么看不太清楚</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>关系,集合</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>关系有点难懂</t>
+          <t>对于空集的后继集不理解，不是应该为{{∅}}吗？</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>关系,集合</t>
+          <t>等价,逻辑</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>集合的关系</t>
+          <t>集合恒等式与逻辑等价式具体关系不太清楚，集合的特征函数难理解</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>关系,集合</t>
+          <t>等价,逻辑</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>逻辑等价式的关系</t>
+          <t>集合恒等式和逻辑等价式之间的关系</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>等价,逻辑</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>较难理解逻辑等价在解题中的运用</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>二元关系,不完全</t>
+          <t>等价,逻辑</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>二元关系的部分。</t>
+          <t>集合恒等式证明和逻辑等价证明还不够熟练</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>二元关系,不完全</t>
+          <t>等价,逻辑</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4.1二元关系不完全掌握4.2 矩阵表达式不明白</t>
+          <t>证明集合等价式</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>二元关系,不完全</t>
+          <t>等价,逻辑</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>二元关系有点不清楚</t>
+          <t>逻辑等价式的关系</t>
         </is>
       </c>
     </row>
